--- a/AkioAI/race_data/中山芝1200.xlsx
+++ b/AkioAI/race_data/中山芝1200.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AkioAI\AkioAI\race_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345372F-7FC2-4414-AD87-1AEEAC83E549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,12 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,8 +74,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,15 +128,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +218,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +270,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,12 +508,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C2">
         <v>55</v>
@@ -465,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>33.14583333333333</v>
+        <v>33.145833333333329</v>
       </c>
       <c r="F2">
         <v>3.899999999999999</v>
@@ -492,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -503,7 +560,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>35.33333333333334</v>
+        <v>35.333333333333343</v>
       </c>
       <c r="E3">
         <v>41.3125</v>
@@ -512,13 +569,13 @@
         <v>3.100000000000001</v>
       </c>
       <c r="G3">
-        <v>38.675</v>
+        <v>38.674999999999997</v>
       </c>
       <c r="H3">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I3">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -533,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -544,13 +601,13 @@
         <v>55</v>
       </c>
       <c r="D4">
-        <v>29.42857142857143</v>
+        <v>29.428571428571431</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.299999999999997</v>
+        <v>3.2999999999999972</v>
       </c>
       <c r="G4">
         <v>29</v>
@@ -559,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -574,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -588,7 +645,7 @@
         <v>25.81818181818182</v>
       </c>
       <c r="E5">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F5">
         <v>3.399999999999999</v>
@@ -600,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J5">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -615,12 +672,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C6">
         <v>57</v>
@@ -629,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.695652173913045</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="F6">
-        <v>3.200000000000003</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -641,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,12 +713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C7">
         <v>57</v>
@@ -673,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.200000000000003</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="G7">
-        <v>36.23684210526316</v>
+        <v>36.236842105263158</v>
       </c>
       <c r="H7">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I7">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J7">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -697,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -708,22 +765,22 @@
         <v>55</v>
       </c>
       <c r="D8">
-        <v>13.51851851851852</v>
+        <v>13.518518518518521</v>
       </c>
       <c r="E8">
         <v>16.5</v>
       </c>
       <c r="F8">
-        <v>3.299999999999997</v>
+        <v>3.2999999999999972</v>
       </c>
       <c r="G8">
-        <v>27.51724137931035</v>
+        <v>27.517241379310349</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -738,36 +795,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C9">
         <v>55</v>
       </c>
       <c r="D9">
-        <v>20.56756756756757</v>
+        <v>20.567567567567568</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G9">
-        <v>13.14864864864865</v>
+        <v>13.148648648648649</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J9">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -779,7 +836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -793,19 +850,19 @@
         <v>27.125</v>
       </c>
       <c r="E10">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F10">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G10">
         <v>30.375</v>
       </c>
       <c r="H10">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I10">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -820,12 +877,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C11">
         <v>55</v>
@@ -837,19 +894,19 @@
         <v>49.625</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G11">
-        <v>30.64285714285714</v>
+        <v>30.642857142857139</v>
       </c>
       <c r="H11">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I11">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J11">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -861,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -872,10 +929,10 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <v>23.70588235294118</v>
+        <v>23.705882352941181</v>
       </c>
       <c r="E12">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F12">
         <v>1.399999999999999</v>
@@ -887,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J12">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -902,12 +959,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C13">
         <v>57</v>
@@ -928,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J13">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -943,7 +1000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -960,19 +1017,19 @@
         <v>25</v>
       </c>
       <c r="F14">
-        <v>3.299999999999997</v>
+        <v>3.2999999999999972</v>
       </c>
       <c r="G14">
         <v>7.5</v>
       </c>
       <c r="H14">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I14">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J14">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -984,18 +1041,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C15">
         <v>57</v>
       </c>
       <c r="D15">
-        <v>19.72222222222222</v>
+        <v>19.722222222222221</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1004,16 +1061,16 @@
         <v>1.899999999999999</v>
       </c>
       <c r="G15">
-        <v>22.58974358974359</v>
+        <v>22.589743589743591</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J15">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1025,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1042,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G16">
         <v>13.75</v>
@@ -1051,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J16">
         <v>1.500000000000014</v>
@@ -1066,21 +1123,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C17">
         <v>55</v>
       </c>
       <c r="D17">
-        <v>28.22222222222222</v>
+        <v>28.222222222222221</v>
       </c>
       <c r="E17">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F17">
         <v>1.5</v>
@@ -1092,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1107,21 +1164,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C18">
         <v>57</v>
       </c>
       <c r="D18">
-        <v>39.07142857142857</v>
+        <v>39.071428571428569</v>
       </c>
       <c r="E18">
-        <v>33.14583333333333</v>
+        <v>33.145833333333329</v>
       </c>
       <c r="F18">
         <v>3.5</v>
@@ -1130,10 +1187,10 @@
         <v>41.53846153846154</v>
       </c>
       <c r="H18">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I18">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J18">
         <v>1.500000000000014</v>
@@ -1148,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1159,25 +1216,25 @@
         <v>55</v>
       </c>
       <c r="D19">
-        <v>26.58823529411765</v>
+        <v>26.588235294117649</v>
       </c>
       <c r="E19">
         <v>49.625</v>
       </c>
       <c r="F19">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G19">
         <v>24.40625</v>
       </c>
       <c r="H19">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I19">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J19">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K19">
         <v>16</v>
@@ -1189,12 +1246,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C20">
         <v>57</v>
@@ -1209,16 +1266,16 @@
         <v>3.100000000000001</v>
       </c>
       <c r="G20">
-        <v>38.88461538461539</v>
+        <v>38.884615384615387</v>
       </c>
       <c r="H20">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I20">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J20">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K20">
         <v>16</v>
@@ -1230,12 +1287,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C21">
         <v>57</v>
@@ -1244,7 +1301,7 @@
         <v>26.375</v>
       </c>
       <c r="E21">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F21">
         <v>3.399999999999999</v>
@@ -1256,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J21">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1271,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1291,7 +1348,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="G22">
-        <v>17.96969696969697</v>
+        <v>17.969696969696969</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1312,12 +1369,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C23">
         <v>55</v>
@@ -1329,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G23">
         <v>21.5</v>
@@ -1338,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J23">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1353,7 +1410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1370,16 +1427,16 @@
         <v>25</v>
       </c>
       <c r="F24">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G24">
-        <v>19.44444444444444</v>
+        <v>19.444444444444439</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1394,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1435,24 +1492,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C26">
         <v>55</v>
       </c>
       <c r="D26">
-        <v>22.68421052631579</v>
+        <v>22.684210526315791</v>
       </c>
       <c r="E26">
-        <v>8.695652173913045</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="F26">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G26">
         <v>29.5</v>
@@ -1461,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J26">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1476,12 +1533,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C27">
         <v>57</v>
@@ -1496,16 +1553,16 @@
         <v>1.399999999999999</v>
       </c>
       <c r="G27">
-        <v>22.1969696969697</v>
+        <v>22.196969696969699</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J27">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1517,36 +1574,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C28">
         <v>53</v>
       </c>
       <c r="D28">
-        <v>27.33333333333333</v>
+        <v>27.333333333333329</v>
       </c>
       <c r="E28">
         <v>16.5</v>
       </c>
       <c r="F28">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G28">
         <v>31.625</v>
       </c>
       <c r="H28">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I28">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J28">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1558,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1572,22 +1629,22 @@
         <v>27.6</v>
       </c>
       <c r="E29">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F29">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G29">
-        <v>25.08620689655172</v>
+        <v>25.086206896551719</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J29">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1599,7 +1656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1613,19 +1670,19 @@
         <v>40</v>
       </c>
       <c r="E30">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>36.78571428571428</v>
+        <v>36.785714285714278</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1640,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1651,7 +1708,7 @@
         <v>57</v>
       </c>
       <c r="D31">
-        <v>15.82857142857143</v>
+        <v>15.828571428571429</v>
       </c>
       <c r="E31">
         <v>13.63636363636363</v>
@@ -1660,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>13.98611111111111</v>
+        <v>13.986111111111111</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1681,12 +1738,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C32">
         <v>55</v>
@@ -1698,16 +1755,16 @@
         <v>12.5</v>
       </c>
       <c r="F32">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G32">
-        <v>16.73684210526316</v>
+        <v>16.736842105263161</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J32">
         <v>1.500000000000014</v>
@@ -1722,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1742,16 +1799,16 @@
         <v>1.600000000000001</v>
       </c>
       <c r="G33">
-        <v>30.88888888888889</v>
+        <v>30.888888888888889</v>
       </c>
       <c r="H33">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I33">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J33">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1763,36 +1820,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C34">
         <v>57</v>
       </c>
       <c r="D34">
-        <v>24.59259259259259</v>
+        <v>24.592592592592592</v>
       </c>
       <c r="E34">
         <v>41.3125</v>
       </c>
       <c r="F34">
-        <v>2.299999999999997</v>
+        <v>2.2999999999999972</v>
       </c>
       <c r="G34">
-        <v>34.73076923076923</v>
+        <v>34.730769230769234</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J34">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K34">
         <v>32</v>
@@ -1804,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1821,7 +1878,7 @@
         <v>12.5</v>
       </c>
       <c r="F35">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G35">
         <v>33</v>
@@ -1830,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J35">
         <v>1.500000000000014</v>
@@ -1845,12 +1902,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C36">
         <v>57</v>
@@ -1865,16 +1922,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.6304347826087</v>
+        <v>21.630434782608699</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J36">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -1886,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1903,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G37">
         <v>27.31818181818182</v>
@@ -1912,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J37">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1927,12 +1984,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C38">
         <v>55</v>
@@ -1947,13 +2004,13 @@
         <v>3.600000000000001</v>
       </c>
       <c r="G38">
-        <v>25.96428571428572</v>
+        <v>25.964285714285719</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1968,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1985,10 +2042,10 @@
         <v>12.5</v>
       </c>
       <c r="F39">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G39">
-        <v>24.78571428571428</v>
+        <v>24.785714285714281</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2009,18 +2066,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C40">
         <v>55</v>
       </c>
       <c r="D40">
-        <v>29.66666666666667</v>
+        <v>29.666666666666671</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2029,16 +2086,16 @@
         <v>1.600000000000001</v>
       </c>
       <c r="G40">
-        <v>37.96296296296296</v>
+        <v>37.962962962962962</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J40">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2050,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2061,13 +2118,13 @@
         <v>57</v>
       </c>
       <c r="D41">
-        <v>20.26315789473684</v>
+        <v>20.263157894736839</v>
       </c>
       <c r="E41">
         <v>8</v>
       </c>
       <c r="F41">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G41">
         <v>25</v>
@@ -2076,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2091,12 +2148,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C42">
         <v>57</v>
@@ -2108,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4.399999999999999</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="G42">
         <v>15.21875</v>
@@ -2117,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J42">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2132,7 +2189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2143,7 +2200,7 @@
         <v>57</v>
       </c>
       <c r="D43">
-        <v>29.73684210526316</v>
+        <v>29.736842105263161</v>
       </c>
       <c r="E43">
         <v>15.90909090909091</v>
@@ -2152,7 +2209,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="G43">
-        <v>18.35185185185185</v>
+        <v>18.351851851851851</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2161,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2173,36 +2230,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C44">
         <v>57</v>
       </c>
       <c r="D44">
-        <v>20.25581395348837</v>
+        <v>20.255813953488371</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="F44">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G44">
-        <v>13.48809523809524</v>
+        <v>13.488095238095241</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J44">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2214,7 +2271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2228,13 +2285,13 @@
         <v>26.75</v>
       </c>
       <c r="E45">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F45">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G45">
-        <v>36.02173913043478</v>
+        <v>36.021739130434781</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2243,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2255,21 +2312,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C46">
         <v>57</v>
       </c>
       <c r="D46">
-        <v>23.85714285714286</v>
+        <v>23.857142857142861</v>
       </c>
       <c r="E46">
-        <v>33.14583333333333</v>
+        <v>33.145833333333329</v>
       </c>
       <c r="F46">
         <v>1.899999999999999</v>
@@ -2281,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2296,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2307,25 +2364,25 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>19.21428571428572</v>
+        <v>19.214285714285719</v>
       </c>
       <c r="E47">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F47">
         <v>1.399999999999999</v>
       </c>
       <c r="G47">
-        <v>32.72222222222222</v>
+        <v>32.722222222222221</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J47">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2337,12 +2394,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C48">
         <v>57</v>
@@ -2351,10 +2408,10 @@
         <v>24.36</v>
       </c>
       <c r="E48">
-        <v>4.347826086956522</v>
+        <v>4.3478260869565224</v>
       </c>
       <c r="F48">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G48">
         <v>16.27586206896552</v>
@@ -2366,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2378,7 +2435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2419,12 +2476,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C50">
         <v>57</v>
@@ -2448,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K50">
         <v>48</v>
@@ -2460,12 +2517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C51">
         <v>55</v>
@@ -2480,7 +2537,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="G51">
-        <v>18.42857142857143</v>
+        <v>18.428571428571431</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2489,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K51">
         <v>48</v>
@@ -2501,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2518,10 +2575,10 @@
         <v>12.5</v>
       </c>
       <c r="F52">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G52">
-        <v>25.26666666666667</v>
+        <v>25.266666666666669</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2530,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K52">
         <v>48</v>
@@ -2542,24 +2599,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C53">
         <v>57</v>
       </c>
       <c r="D53">
-        <v>24.90476190476191</v>
+        <v>24.904761904761909</v>
       </c>
       <c r="E53">
-        <v>4.347826086956522</v>
+        <v>4.3478260869565224</v>
       </c>
       <c r="F53">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G53">
         <v>24.21</v>
@@ -2568,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J53">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2583,12 +2640,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C54">
         <v>57</v>
@@ -2603,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>20.83333333333334</v>
+        <v>20.833333333333339</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2624,27 +2681,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C55">
         <v>57</v>
       </c>
       <c r="D55">
-        <v>41.73333333333333</v>
+        <v>41.733333333333327</v>
       </c>
       <c r="E55">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F55">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G55">
-        <v>22.85714285714286</v>
+        <v>22.857142857142861</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2653,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2665,7 +2722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2676,7 +2733,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>24.35294117647059</v>
+        <v>24.352941176470591</v>
       </c>
       <c r="E56">
         <v>15.90909090909091</v>
@@ -2685,16 +2742,16 @@
         <v>3.399999999999999</v>
       </c>
       <c r="G56">
-        <v>23.13888888888889</v>
+        <v>23.138888888888889</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J56">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2706,7 +2763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2717,25 +2774,25 @@
         <v>57</v>
       </c>
       <c r="D57">
-        <v>29.21739130434782</v>
+        <v>29.217391304347821</v>
       </c>
       <c r="E57">
         <v>16.5</v>
       </c>
       <c r="F57">
-        <v>3.799999999999997</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="G57">
-        <v>32.15909090909091</v>
+        <v>32.159090909090907</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J57">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2747,12 +2804,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C58">
         <v>55</v>
@@ -2761,22 +2818,22 @@
         <v>22</v>
       </c>
       <c r="E58">
-        <v>8.695652173913045</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="F58">
         <v>1.899999999999999</v>
       </c>
       <c r="G58">
-        <v>16.20833333333334</v>
+        <v>16.208333333333339</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J58">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2788,12 +2845,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C59">
         <v>57</v>
@@ -2805,19 +2862,19 @@
         <v>25</v>
       </c>
       <c r="F59">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G59">
-        <v>17.26666666666667</v>
+        <v>17.266666666666669</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J59">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -2829,7 +2886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2843,10 +2900,10 @@
         <v>26.53846153846154</v>
       </c>
       <c r="E60">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F60">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G60">
         <v>28.09375</v>
@@ -2858,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2870,12 +2927,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C61">
         <v>57</v>
@@ -2887,19 +2944,19 @@
         <v>11.53846153846154</v>
       </c>
       <c r="F61">
-        <v>2.299999999999997</v>
+        <v>2.2999999999999972</v>
       </c>
       <c r="G61">
-        <v>33.09523809523809</v>
+        <v>33.095238095238088</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J61">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -2911,7 +2968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2928,19 +2985,19 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.700000000000003</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="G62">
-        <v>24.85135135135135</v>
+        <v>24.851351351351351</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J62">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -2952,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2966,19 +3023,19 @@
         <v>29.25</v>
       </c>
       <c r="E63">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F63">
         <v>1.600000000000001</v>
       </c>
       <c r="G63">
-        <v>24.14285714285714</v>
+        <v>24.142857142857139</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2993,7 +3050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3010,7 +3067,7 @@
         <v>30</v>
       </c>
       <c r="F64">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G64">
         <v>35.9375</v>
@@ -3019,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J64">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3034,7 +3091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3060,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J65">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3075,18 +3132,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C66">
         <v>57</v>
       </c>
       <c r="D66">
-        <v>20.55555555555556</v>
+        <v>20.555555555555561</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3095,7 +3152,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="G66">
-        <v>34.47058823529412</v>
+        <v>34.470588235294123</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3104,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K66">
         <v>64</v>
@@ -3116,12 +3173,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C67">
         <v>57</v>
@@ -3133,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G67">
-        <v>33.52941176470588</v>
+        <v>33.529411764705877</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -3157,18 +3214,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C68">
         <v>53</v>
       </c>
       <c r="D68">
-        <v>24.44444444444444</v>
+        <v>24.444444444444439</v>
       </c>
       <c r="E68">
         <v>8</v>
@@ -3183,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J68">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K68">
         <v>64</v>
@@ -3198,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3215,7 +3272,7 @@
         <v>41.3125</v>
       </c>
       <c r="F69">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G69">
         <v>32.5</v>
@@ -3224,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J69">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3239,7 +3296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3253,22 +3310,22 @@
         <v>27</v>
       </c>
       <c r="E70">
-        <v>4.347826086956522</v>
+        <v>4.3478260869565224</v>
       </c>
       <c r="F70">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G70">
-        <v>25.04761904761905</v>
+        <v>25.047619047619051</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J70">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3280,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3291,7 +3348,7 @@
         <v>57</v>
       </c>
       <c r="D71">
-        <v>18.62068965517241</v>
+        <v>18.620689655172409</v>
       </c>
       <c r="E71">
         <v>11.53846153846154</v>
@@ -3300,16 +3357,16 @@
         <v>1.100000000000001</v>
       </c>
       <c r="G71">
-        <v>28.20689655172414</v>
+        <v>28.206896551724139</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J71">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3321,7 +3378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3347,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J72">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3362,7 +3419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3376,22 +3433,22 @@
         <v>22</v>
       </c>
       <c r="E73">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F73">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G73">
-        <v>14.94642857142857</v>
+        <v>14.946428571428569</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J73">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3403,18 +3460,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C74">
         <v>55</v>
       </c>
       <c r="D74">
-        <v>25.26666666666667</v>
+        <v>25.266666666666669</v>
       </c>
       <c r="E74">
         <v>16.5</v>
@@ -3429,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J74">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3444,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3458,7 +3515,7 @@
         <v>32.85</v>
       </c>
       <c r="E75">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F75">
         <v>1.100000000000001</v>
@@ -3470,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J75">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3485,24 +3542,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C76">
         <v>53</v>
       </c>
       <c r="D76">
-        <v>29.44444444444444</v>
+        <v>29.444444444444439</v>
       </c>
       <c r="E76">
         <v>30</v>
       </c>
       <c r="F76">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G76">
         <v>36.0625</v>
@@ -3511,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3526,36 +3583,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C77">
         <v>57</v>
       </c>
       <c r="D77">
-        <v>45.23076923076923</v>
+        <v>45.230769230769234</v>
       </c>
       <c r="E77">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F77">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G77">
-        <v>42.91666666666667</v>
+        <v>42.916666666666671</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J77">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3567,7 +3624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3587,16 +3644,16 @@
         <v>2.600000000000001</v>
       </c>
       <c r="G78">
-        <v>17.05357142857143</v>
+        <v>17.053571428571431</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J78">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3608,18 +3665,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C79">
         <v>57</v>
       </c>
       <c r="D79">
-        <v>16.02777777777778</v>
+        <v>16.027777777777779</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3628,13 +3685,13 @@
         <v>3.399999999999999</v>
       </c>
       <c r="G79">
-        <v>22.64285714285714</v>
+        <v>22.642857142857139</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3649,7 +3706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3660,13 +3717,13 @@
         <v>57</v>
       </c>
       <c r="D80">
-        <v>28.88888888888889</v>
+        <v>28.888888888888889</v>
       </c>
       <c r="E80">
         <v>16.5</v>
       </c>
       <c r="F80">
-        <v>3.799999999999997</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="G80">
         <v>27.02941176470588</v>
@@ -3675,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J80">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3690,27 +3747,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C81">
         <v>57</v>
       </c>
       <c r="D81">
-        <v>21.82857142857143</v>
+        <v>21.828571428571429</v>
       </c>
       <c r="E81">
         <v>25</v>
       </c>
       <c r="F81">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G81">
-        <v>22.45588235294118</v>
+        <v>22.455882352941181</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3719,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3731,18 +3788,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C82">
         <v>55</v>
       </c>
       <c r="D82">
-        <v>29.14285714285714</v>
+        <v>29.142857142857139</v>
       </c>
       <c r="E82">
         <v>15.90909090909091</v>
@@ -3754,13 +3811,13 @@
         <v>26.92592592592592</v>
       </c>
       <c r="H82">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I82">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J82">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K82">
         <v>80</v>
@@ -3772,12 +3829,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C83">
         <v>57</v>
@@ -3789,7 +3846,7 @@
         <v>25</v>
       </c>
       <c r="F83">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G83">
         <v>15.3</v>
@@ -3801,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K83">
         <v>80</v>
@@ -3813,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3830,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G84">
-        <v>34.83333333333334</v>
+        <v>34.833333333333343</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -3854,24 +3911,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C85">
         <v>57</v>
       </c>
       <c r="D85">
-        <v>33.28571428571428</v>
+        <v>33.285714285714278</v>
       </c>
       <c r="E85">
         <v>16.5</v>
       </c>
       <c r="F85">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G85">
         <v>21.07692307692308</v>
@@ -3895,18 +3952,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C86">
         <v>55</v>
       </c>
       <c r="D86">
-        <v>23.08695652173913</v>
+        <v>23.086956521739129</v>
       </c>
       <c r="E86">
         <v>16.5</v>
@@ -3921,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J86">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -3936,12 +3993,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C87">
         <v>57</v>
@@ -3950,13 +4007,13 @@
         <v>21.4</v>
       </c>
       <c r="E87">
-        <v>33.14583333333333</v>
+        <v>33.145833333333329</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>25.88888888888889</v>
+        <v>25.888888888888889</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3977,7 +4034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3988,25 +4045,25 @@
         <v>55</v>
       </c>
       <c r="D88">
-        <v>22.52380952380953</v>
+        <v>22.523809523809529</v>
       </c>
       <c r="E88">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F88">
-        <v>0.1000000000000014</v>
+        <v>0.10000000000000139</v>
       </c>
       <c r="G88">
-        <v>23.33333333333334</v>
+        <v>23.333333333333339</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J88">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4018,7 +4075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4041,13 +4098,13 @@
         <v>15</v>
       </c>
       <c r="H89">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I89">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J89">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4059,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4076,19 +4133,19 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G90">
-        <v>36.21428571428572</v>
+        <v>36.214285714285722</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J90">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4100,7 +4157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4117,16 +4174,16 @@
         <v>10</v>
       </c>
       <c r="F91">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G91">
-        <v>29.92857142857143</v>
+        <v>29.928571428571431</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4141,7 +4198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4158,7 +4215,7 @@
         <v>41.3125</v>
       </c>
       <c r="F92">
-        <v>2.299999999999997</v>
+        <v>2.2999999999999972</v>
       </c>
       <c r="G92">
         <v>17.01923076923077</v>
@@ -4167,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J92">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4182,18 +4239,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C93">
         <v>57</v>
       </c>
       <c r="D93">
-        <v>29.44444444444444</v>
+        <v>29.444444444444439</v>
       </c>
       <c r="E93">
         <v>12.5</v>
@@ -4208,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J93">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4223,7 +4280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4234,7 +4291,7 @@
         <v>55</v>
       </c>
       <c r="D94">
-        <v>33.07142857142857</v>
+        <v>33.071428571428569</v>
       </c>
       <c r="E94">
         <v>30</v>
@@ -4243,16 +4300,16 @@
         <v>1.100000000000001</v>
       </c>
       <c r="G94">
-        <v>34.78571428571428</v>
+        <v>34.785714285714278</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J94">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4264,18 +4321,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C95">
         <v>57</v>
       </c>
       <c r="D95">
-        <v>25.57894736842105</v>
+        <v>25.578947368421051</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4305,7 +4362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4316,7 +4373,7 @@
         <v>57</v>
       </c>
       <c r="D96">
-        <v>12.04761904761905</v>
+        <v>12.047619047619049</v>
       </c>
       <c r="E96">
         <v>9.722222222222225</v>
@@ -4325,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>30.89189189189189</v>
+        <v>30.891891891891891</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4346,7 +4403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4387,10 +4444,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
+      <c r="B98">
+        <v>20.020202000000001</v>
+      </c>
       <c r="C98">
         <v>57</v>
       </c>
@@ -4398,19 +4458,19 @@
         <v>18.625</v>
       </c>
       <c r="E98">
-        <v>4.347826086956522</v>
+        <v>4.3478260869565224</v>
       </c>
       <c r="F98">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G98">
-        <v>24.98529411764706</v>
+        <v>24.985294117647062</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -4425,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4448,13 +4508,13 @@
         <v>18.81818181818182</v>
       </c>
       <c r="H99">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K99">
         <v>96</v>
@@ -4466,33 +4526,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C100">
         <v>55</v>
       </c>
       <c r="D100">
-        <v>23.78571428571428</v>
+        <v>23.785714285714281</v>
       </c>
       <c r="E100">
         <v>8</v>
       </c>
       <c r="F100">
-        <v>0.1000000000000014</v>
+        <v>0.10000000000000139</v>
       </c>
       <c r="G100">
-        <v>30.10714285714286</v>
+        <v>30.107142857142861</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -4507,7 +4567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4521,10 +4581,10 @@
         <v>24.68</v>
       </c>
       <c r="E101">
-        <v>8.695652173913045</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="F101">
-        <v>3.200000000000003</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="G101">
         <v>29.2</v>
@@ -4536,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4548,18 +4608,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C102">
         <v>53</v>
       </c>
       <c r="D102">
-        <v>32.22222222222222</v>
+        <v>32.222222222222221</v>
       </c>
       <c r="E102">
         <v>30</v>
@@ -4574,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J102">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4589,24 +4649,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C103">
         <v>57</v>
       </c>
       <c r="D103">
-        <v>20.67857142857143</v>
+        <v>20.678571428571431</v>
       </c>
       <c r="E103">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F103">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G103">
         <v>22</v>
@@ -4618,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4630,7 +4690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4647,10 +4707,10 @@
         <v>16.30434782608695</v>
       </c>
       <c r="F104">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G104">
-        <v>35.91666666666666</v>
+        <v>35.916666666666657</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4659,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4671,12 +4731,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C105">
         <v>57</v>
@@ -4685,7 +4745,7 @@
         <v>25.85</v>
       </c>
       <c r="E105">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F105">
         <v>3.100000000000001</v>
@@ -4697,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J105">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4712,7 +4772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4723,7 +4783,7 @@
         <v>57</v>
       </c>
       <c r="D106">
-        <v>27.45833333333333</v>
+        <v>27.458333333333329</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4738,10 +4798,10 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J106">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4753,10 +4813,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
+      <c r="B107">
+        <v>19.282922899999999</v>
+      </c>
       <c r="C107">
         <v>57</v>
       </c>
@@ -4764,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F107">
         <v>2.899999999999999</v>
@@ -4776,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J107">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4791,12 +4854,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C108">
         <v>55</v>
@@ -4817,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -4832,7 +4895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4843,7 +4906,7 @@
         <v>57</v>
       </c>
       <c r="D109">
-        <v>27.64285714285714</v>
+        <v>27.642857142857139</v>
       </c>
       <c r="E109">
         <v>16.5</v>
@@ -4873,12 +4936,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>21.22395833333333</v>
+        <v>21.223958333333329</v>
       </c>
       <c r="C110">
         <v>57</v>
@@ -4893,16 +4956,16 @@
         <v>2</v>
       </c>
       <c r="G110">
-        <v>30.92857142857143</v>
+        <v>30.928571428571431</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J110">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4914,7 +4977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4928,19 +4991,19 @@
         <v>24.65</v>
       </c>
       <c r="E111">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F111">
         <v>1.600000000000001</v>
       </c>
       <c r="G111">
-        <v>24.68421052631579</v>
+        <v>24.684210526315791</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J111">
         <v>1.500000000000014</v>
@@ -4955,18 +5018,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C112">
         <v>57</v>
       </c>
       <c r="D112">
-        <v>20.64285714285714</v>
+        <v>20.642857142857139</v>
       </c>
       <c r="E112">
         <v>12.5</v>
@@ -4975,16 +5038,16 @@
         <v>2.399999999999999</v>
       </c>
       <c r="G112">
-        <v>26.98148148148148</v>
+        <v>26.981481481481481</v>
       </c>
       <c r="H112">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -4996,12 +5059,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C113">
         <v>57</v>
@@ -5037,7 +5100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5054,10 +5117,10 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>3.299999999999997</v>
+        <v>3.2999999999999972</v>
       </c>
       <c r="G114">
-        <v>32.97727272727273</v>
+        <v>32.977272727272727</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5078,7 +5141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5104,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5119,18 +5182,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C116">
         <v>57</v>
       </c>
       <c r="D116">
-        <v>48.88888888888889</v>
+        <v>48.888888888888893</v>
       </c>
       <c r="E116">
         <v>16.5</v>
@@ -5139,16 +5202,16 @@
         <v>2.899999999999999</v>
       </c>
       <c r="G116">
-        <v>39.85294117647059</v>
+        <v>39.852941176470587</v>
       </c>
       <c r="H116">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I116">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J116">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K116">
         <v>114</v>
@@ -5160,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5171,7 +5234,7 @@
         <v>57</v>
       </c>
       <c r="D117">
-        <v>29.05555555555556</v>
+        <v>29.055555555555561</v>
       </c>
       <c r="E117">
         <v>12.5</v>
@@ -5180,16 +5243,16 @@
         <v>2</v>
       </c>
       <c r="G117">
-        <v>35.64705882352941</v>
+        <v>35.647058823529413</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J117">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K117">
         <v>114</v>
@@ -5201,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5212,10 +5275,10 @@
         <v>57</v>
       </c>
       <c r="D118">
-        <v>23.08333333333333</v>
+        <v>23.083333333333329</v>
       </c>
       <c r="E118">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F118">
         <v>3.100000000000001</v>
@@ -5227,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J118">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K118">
         <v>114</v>
@@ -5242,27 +5305,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C119">
         <v>57</v>
       </c>
       <c r="D119">
-        <v>29.33333333333333</v>
+        <v>29.333333333333329</v>
       </c>
       <c r="E119">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F119">
         <v>3</v>
       </c>
       <c r="G119">
-        <v>34.55769230769231</v>
+        <v>34.557692307692307</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5271,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5283,7 +5346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5294,7 +5357,7 @@
         <v>55</v>
       </c>
       <c r="D120">
-        <v>19.79166666666667</v>
+        <v>19.791666666666671</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5309,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5324,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5341,19 +5404,19 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G121">
-        <v>30.08620689655172</v>
+        <v>30.086206896551719</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J121">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5365,18 +5428,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C122">
         <v>57</v>
       </c>
       <c r="D122">
-        <v>26.09523809523809</v>
+        <v>26.095238095238091</v>
       </c>
       <c r="E122">
         <v>11.53846153846154</v>
@@ -5385,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>17.52380952380953</v>
+        <v>17.523809523809529</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5406,12 +5469,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C123">
         <v>57</v>
@@ -5420,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F123">
         <v>2.899999999999999</v>
@@ -5432,10 +5495,10 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J123">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5447,7 +5510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5488,18 +5551,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C125">
         <v>57</v>
       </c>
       <c r="D125">
-        <v>8.863636363636363</v>
+        <v>8.8636363636363633</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -5517,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5529,27 +5592,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C126">
         <v>57</v>
       </c>
       <c r="D126">
-        <v>22.73684210526316</v>
+        <v>22.736842105263161</v>
       </c>
       <c r="E126">
         <v>25</v>
       </c>
       <c r="F126">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G126">
-        <v>19.97222222222222</v>
+        <v>19.972222222222221</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5570,7 +5633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5584,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F127">
         <v>1.899999999999999</v>
@@ -5593,13 +5656,13 @@
         <v>15</v>
       </c>
       <c r="H127">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I127">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J127">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5611,7 +5674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5628,19 +5691,19 @@
         <v>30</v>
       </c>
       <c r="F128">
-        <v>0.3999999999999986</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G128">
-        <v>22.64285714285714</v>
+        <v>22.642857142857139</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J128">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5652,7 +5715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5666,10 +5729,10 @@
         <v>24.25</v>
       </c>
       <c r="E129">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F129">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G129">
         <v>21.68181818181818</v>
@@ -5678,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J129">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5693,12 +5756,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C130">
         <v>57</v>
@@ -5713,16 +5776,16 @@
         <v>1.5</v>
       </c>
       <c r="G130">
-        <v>16.89285714285714</v>
+        <v>16.892857142857139</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J130">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -5734,12 +5797,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C131">
         <v>55</v>
@@ -5748,22 +5811,22 @@
         <v>20.72727272727273</v>
       </c>
       <c r="E131">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131">
-        <v>34.04761904761905</v>
+        <v>34.047619047619051</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J131">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5775,7 +5838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5786,7 +5849,7 @@
         <v>57</v>
       </c>
       <c r="D132">
-        <v>40.91666666666666</v>
+        <v>40.916666666666657</v>
       </c>
       <c r="E132">
         <v>16.5</v>
@@ -5795,16 +5858,16 @@
         <v>2.899999999999999</v>
       </c>
       <c r="G132">
-        <v>37.77272727272727</v>
+        <v>37.772727272727273</v>
       </c>
       <c r="H132">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I132">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J132">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K132">
         <v>130</v>
@@ -5816,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5830,10 +5893,10 @@
         <v>41</v>
       </c>
       <c r="E133">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F133">
-        <v>1.700000000000003</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="G133">
         <v>30.53125</v>
@@ -5842,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J133">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K133">
         <v>130</v>
@@ -5857,7 +5920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5874,19 +5937,19 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>2.700000000000003</v>
+        <v>2.7000000000000028</v>
       </c>
       <c r="G134">
-        <v>23.72916666666666</v>
+        <v>23.729166666666661</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J134">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K134">
         <v>130</v>
@@ -5898,12 +5961,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C135">
         <v>53</v>
@@ -5924,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J135">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5939,7 +6002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5980,12 +6043,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C137">
         <v>57</v>
@@ -5994,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F137">
         <v>2.899999999999999</v>
@@ -6006,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J137">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -6021,7 +6084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6047,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J138">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -6062,7 +6125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6073,7 +6136,7 @@
         <v>57</v>
       </c>
       <c r="D139">
-        <v>27.52173913043478</v>
+        <v>27.521739130434781</v>
       </c>
       <c r="E139">
         <v>24.8125</v>
@@ -6082,16 +6145,16 @@
         <v>1.5</v>
       </c>
       <c r="G139">
-        <v>35.84090909090909</v>
+        <v>35.840909090909093</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J139">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -6103,21 +6166,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C140">
         <v>55</v>
       </c>
       <c r="D140">
-        <v>17.10714285714286</v>
+        <v>17.107142857142861</v>
       </c>
       <c r="E140">
-        <v>13.79310344827586</v>
+        <v>13.793103448275859</v>
       </c>
       <c r="F140">
         <v>2.5</v>
@@ -6132,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6144,7 +6207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6164,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>37.33333333333334</v>
+        <v>37.333333333333343</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -6185,12 +6248,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C142">
         <v>57</v>
@@ -6199,10 +6262,10 @@
         <v>22.09090909090909</v>
       </c>
       <c r="E142">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F142">
-        <v>0.6000000000000014</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="G142">
         <v>24.09090909090909</v>
@@ -6214,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -6226,12 +6289,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C143">
         <v>57</v>
@@ -6240,22 +6303,22 @@
         <v>31.09090909090909</v>
       </c>
       <c r="E143">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F143">
         <v>3</v>
       </c>
       <c r="G143">
-        <v>17.76315789473684</v>
+        <v>17.763157894736839</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J143">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6267,7 +6330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6278,7 +6341,7 @@
         <v>57</v>
       </c>
       <c r="D144">
-        <v>20.54761904761905</v>
+        <v>20.547619047619051</v>
       </c>
       <c r="E144">
         <v>12.5</v>
@@ -6293,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J144">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6308,12 +6371,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C145">
         <v>55</v>
@@ -6325,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G145">
         <v>22.48076923076923</v>
@@ -6334,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J145">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -6349,12 +6412,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C146">
         <v>57</v>
@@ -6390,12 +6453,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C147">
         <v>57</v>
@@ -6416,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J147">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6431,7 +6494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6451,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>17.27777777777778</v>
+        <v>17.277777777777779</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6472,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6498,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J149">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K149">
         <v>146</v>
@@ -6513,7 +6576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6527,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F150">
         <v>2.899999999999999</v>
@@ -6554,7 +6617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6595,12 +6658,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C152">
         <v>55</v>
@@ -6609,19 +6672,19 @@
         <v>22.10526315789474</v>
       </c>
       <c r="E152">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F152">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G152">
-        <v>33.94444444444444</v>
+        <v>33.944444444444443</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -6636,18 +6699,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C153">
         <v>57</v>
       </c>
       <c r="D153">
-        <v>19.55555555555556</v>
+        <v>19.555555555555561</v>
       </c>
       <c r="E153">
         <v>1.666666666666667</v>
@@ -6656,16 +6719,16 @@
         <v>2</v>
       </c>
       <c r="G153">
-        <v>30.52631578947368</v>
+        <v>30.526315789473681</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J153">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -6677,7 +6740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6703,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="I154">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6718,27 +6781,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C155">
         <v>57</v>
       </c>
       <c r="D155">
-        <v>22.83333333333333</v>
+        <v>22.833333333333329</v>
       </c>
       <c r="E155">
         <v>7.5</v>
       </c>
       <c r="F155">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G155">
-        <v>18.725</v>
+        <v>18.725000000000001</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -6747,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -6759,12 +6822,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C156">
         <v>57</v>
@@ -6773,10 +6836,10 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>13.79310344827586</v>
+        <v>13.793103448275859</v>
       </c>
       <c r="F156">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G156">
         <v>15</v>
@@ -6788,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -6800,7 +6863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6817,7 +6880,7 @@
         <v>24.8125</v>
       </c>
       <c r="F157">
-        <v>0.6000000000000014</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="G157">
         <v>25.86538461538461</v>
@@ -6826,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="I157">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J157">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -6841,18 +6904,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C158">
         <v>57</v>
       </c>
       <c r="D158">
-        <v>18.48148148148148</v>
+        <v>18.481481481481481</v>
       </c>
       <c r="E158">
         <v>12.5</v>
@@ -6861,16 +6924,16 @@
         <v>2.5</v>
       </c>
       <c r="G158">
-        <v>19.9875</v>
+        <v>19.987500000000001</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J158">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -6882,7 +6945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6893,25 +6956,25 @@
         <v>55</v>
       </c>
       <c r="D159">
-        <v>15.64285714285714</v>
+        <v>15.642857142857141</v>
       </c>
       <c r="E159">
         <v>16.30434782608695</v>
       </c>
       <c r="F159">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G159">
-        <v>20.23913043478261</v>
+        <v>20.239130434782609</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J159">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -6923,24 +6986,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C160">
         <v>57</v>
       </c>
       <c r="D160">
-        <v>20.11111111111111</v>
+        <v>20.111111111111111</v>
       </c>
       <c r="E160">
         <v>11.53846153846154</v>
       </c>
       <c r="F160">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G160">
         <v>21.71153846153846</v>
@@ -6949,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="I160">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J160">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6964,7 +7027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6981,7 +7044,7 @@
         <v>18.75</v>
       </c>
       <c r="F161">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G161">
         <v>24.9</v>
@@ -6990,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="I161">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J161">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -7005,7 +7068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7019,13 +7082,13 @@
         <v>24.87096774193548</v>
       </c>
       <c r="E162">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162">
-        <v>15.01612903225806</v>
+        <v>15.016129032258061</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -7034,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -7046,12 +7109,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C163">
         <v>57</v>
@@ -7075,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -7087,12 +7150,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C164">
         <v>57</v>
@@ -7104,7 +7167,7 @@
         <v>18.75</v>
       </c>
       <c r="F164">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G164">
         <v>18.02</v>
@@ -7113,10 +7176,10 @@
         <v>0</v>
       </c>
       <c r="I164">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J164">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K164">
         <v>162</v>
@@ -7128,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7145,16 +7208,16 @@
         <v>24.8125</v>
       </c>
       <c r="F165">
-        <v>0.6000000000000014</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="G165">
-        <v>35.725</v>
+        <v>35.725000000000001</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -7169,12 +7232,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C166">
         <v>55</v>
@@ -7186,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G166">
         <v>25.40909090909091</v>
@@ -7195,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J166">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K166">
         <v>162</v>
@@ -7210,24 +7273,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C167">
         <v>57</v>
       </c>
       <c r="D167">
-        <v>22.87878787878788</v>
+        <v>22.878787878787879</v>
       </c>
       <c r="E167">
         <v>7.5</v>
       </c>
       <c r="F167">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G167">
         <v>15.42424242424242</v>
@@ -7236,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="I167">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J167">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7251,12 +7314,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C168">
         <v>55</v>
@@ -7265,22 +7328,22 @@
         <v>31.36363636363636</v>
       </c>
       <c r="E168">
-        <v>13.79310344827586</v>
+        <v>13.793103448275859</v>
       </c>
       <c r="F168">
         <v>2.600000000000001</v>
       </c>
       <c r="G168">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J168">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7292,7 +7355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7318,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I169">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J169">
         <v>1.500000000000014</v>
@@ -7333,18 +7396,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C170">
         <v>57</v>
       </c>
       <c r="D170">
-        <v>23.58333333333333</v>
+        <v>23.583333333333329</v>
       </c>
       <c r="E170">
         <v>25</v>
@@ -7353,7 +7416,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="G170">
-        <v>20.38235294117647</v>
+        <v>20.382352941176471</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -7374,7 +7437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7388,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F171">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G171">
         <v>15</v>
@@ -7400,10 +7463,10 @@
         <v>0</v>
       </c>
       <c r="I171">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J171">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -7415,7 +7478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7426,7 +7489,7 @@
         <v>57</v>
       </c>
       <c r="D172">
-        <v>17.16666666666667</v>
+        <v>17.166666666666671</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -7435,16 +7498,16 @@
         <v>2.5</v>
       </c>
       <c r="G172">
-        <v>20.17741935483871</v>
+        <v>20.177419354838712</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J172">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -7456,18 +7519,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C173">
         <v>57</v>
       </c>
       <c r="D173">
-        <v>22.23809523809524</v>
+        <v>22.238095238095241</v>
       </c>
       <c r="E173">
         <v>11.53846153846154</v>
@@ -7482,10 +7545,10 @@
         <v>0</v>
       </c>
       <c r="I173">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J173">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7497,7 +7560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7508,25 +7571,25 @@
         <v>57</v>
       </c>
       <c r="D174">
-        <v>23.58333333333333</v>
+        <v>23.583333333333329</v>
       </c>
       <c r="E174">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
       <c r="G174">
-        <v>22.47916666666667</v>
+        <v>22.479166666666671</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J174">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -7538,12 +7601,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C175">
         <v>57</v>
@@ -7552,13 +7615,13 @@
         <v>25.72727272727273</v>
       </c>
       <c r="E175">
-        <v>8.695652173913045</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="F175">
         <v>3</v>
       </c>
       <c r="G175">
-        <v>18.40476190476191</v>
+        <v>18.404761904761909</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7567,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -7579,7 +7642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7590,7 +7653,7 @@
         <v>53</v>
       </c>
       <c r="D176">
-        <v>30.55555555555556</v>
+        <v>30.555555555555561</v>
       </c>
       <c r="E176">
         <v>12.5</v>
@@ -7605,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7620,7 +7683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7646,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -7661,27 +7724,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C178">
         <v>55</v>
       </c>
       <c r="D178">
-        <v>9.675675675675675</v>
+        <v>9.6756756756756754</v>
       </c>
       <c r="E178">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F178">
-        <v>1.700000000000003</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="G178">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7690,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -7702,7 +7765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7722,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>20.55555555555556</v>
+        <v>20.555555555555561</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -7743,7 +7806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7754,25 +7817,25 @@
         <v>55</v>
       </c>
       <c r="D180">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E180">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F180">
-        <v>3.200000000000003</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="G180">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J180">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K180">
         <v>178</v>
@@ -7784,18 +7847,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C181">
         <v>57</v>
       </c>
       <c r="D181">
-        <v>25.47368421052632</v>
+        <v>25.473684210526319</v>
       </c>
       <c r="E181">
         <v>16.5</v>
@@ -7804,16 +7867,16 @@
         <v>3</v>
       </c>
       <c r="G181">
-        <v>31.63888888888889</v>
+        <v>31.638888888888889</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J181">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K181">
         <v>178</v>
@@ -7825,33 +7888,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C182">
         <v>57</v>
       </c>
       <c r="D182">
-        <v>24.33333333333333</v>
+        <v>24.333333333333329</v>
       </c>
       <c r="E182">
         <v>24.8125</v>
       </c>
       <c r="F182">
-        <v>0.6000000000000014</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="G182">
-        <v>30.42857142857143</v>
+        <v>30.428571428571431</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -7866,7 +7929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7892,10 +7955,10 @@
         <v>0</v>
       </c>
       <c r="I183">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J183">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -7907,12 +7970,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C184">
         <v>55</v>
@@ -7933,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -7948,7 +8011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7959,25 +8022,25 @@
         <v>57</v>
       </c>
       <c r="D185">
-        <v>18.32258064516129</v>
+        <v>18.322580645161288</v>
       </c>
       <c r="E185">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F185">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G185">
-        <v>22.53225806451613</v>
+        <v>22.532258064516132</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J185">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -7989,7 +8052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8000,13 +8063,13 @@
         <v>55</v>
       </c>
       <c r="D186">
-        <v>28.11764705882353</v>
+        <v>28.117647058823529</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G186">
         <v>35.96875</v>
@@ -8015,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J186">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -8030,12 +8093,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C187">
         <v>57</v>
@@ -8044,10 +8107,10 @@
         <v>15.74</v>
       </c>
       <c r="E187">
-        <v>14.28571428571428</v>
+        <v>14.285714285714279</v>
       </c>
       <c r="F187">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G187">
         <v>21.04081632653061</v>
@@ -8056,10 +8119,10 @@
         <v>0</v>
       </c>
       <c r="I187">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J187">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -8071,24 +8134,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C188">
         <v>55</v>
       </c>
       <c r="D188">
-        <v>15.69565217391304</v>
+        <v>15.695652173913039</v>
       </c>
       <c r="E188">
         <v>20</v>
       </c>
       <c r="F188">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G188">
         <v>13.3</v>
@@ -8097,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J188">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -8112,21 +8175,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C189">
         <v>57</v>
       </c>
       <c r="D189">
-        <v>22.23529411764706</v>
+        <v>22.235294117647062</v>
       </c>
       <c r="E189">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F189">
         <v>3.600000000000001</v>
@@ -8138,10 +8201,10 @@
         <v>0</v>
       </c>
       <c r="I189">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J189">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -8153,7 +8216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8167,22 +8230,22 @@
         <v>17.04</v>
       </c>
       <c r="E190">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F190">
         <v>2</v>
       </c>
       <c r="G190">
-        <v>13.49056603773585</v>
+        <v>13.490566037735849</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J190">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -8194,7 +8257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8205,25 +8268,25 @@
         <v>57</v>
       </c>
       <c r="D191">
-        <v>19.85714285714286</v>
+        <v>19.857142857142861</v>
       </c>
       <c r="E191">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F191">
         <v>3.600000000000001</v>
       </c>
       <c r="G191">
-        <v>28.21794871794872</v>
+        <v>28.217948717948719</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J191">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -8235,7 +8298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8255,16 +8318,16 @@
         <v>1.600000000000001</v>
       </c>
       <c r="G192">
-        <v>24.35185185185185</v>
+        <v>24.351851851851851</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J192">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -8276,12 +8339,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C193">
         <v>57</v>
@@ -8290,22 +8353,22 @@
         <v>24.17647058823529</v>
       </c>
       <c r="E193">
-        <v>8.695652173913045</v>
+        <v>8.6956521739130448</v>
       </c>
       <c r="F193">
         <v>1</v>
       </c>
       <c r="G193">
-        <v>16.05882352941176</v>
+        <v>16.058823529411761</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J193">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K193">
         <v>0</v>
@@ -8317,12 +8380,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C194">
         <v>57</v>
@@ -8334,19 +8397,19 @@
         <v>16.30434782608695</v>
       </c>
       <c r="F194">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G194">
-        <v>13.81081081081081</v>
+        <v>13.810810810810811</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J194">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -8358,7 +8421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8369,7 +8432,7 @@
         <v>57</v>
       </c>
       <c r="D195">
-        <v>20.30232558139535</v>
+        <v>20.302325581395351</v>
       </c>
       <c r="E195">
         <v>12.5</v>
@@ -8378,7 +8441,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="G195">
-        <v>12.48809523809524</v>
+        <v>12.488095238095241</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8387,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -8399,7 +8462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8410,13 +8473,13 @@
         <v>53</v>
       </c>
       <c r="D196">
-        <v>37.11111111111111</v>
+        <v>37.111111111111107</v>
       </c>
       <c r="E196">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F196">
-        <v>1.700000000000003</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="G196">
         <v>29.125</v>
@@ -8425,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="I196">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -8440,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8457,19 +8520,19 @@
         <v>41.3125</v>
       </c>
       <c r="F197">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G197">
-        <v>35.76666666666667</v>
+        <v>35.766666666666673</v>
       </c>
       <c r="H197">
         <v>0</v>
       </c>
       <c r="I197">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J197">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K197">
         <v>194</v>
@@ -8481,36 +8544,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C198">
         <v>57</v>
       </c>
       <c r="D198">
-        <v>26.61111111111111</v>
+        <v>26.611111111111111</v>
       </c>
       <c r="E198">
-        <v>13.79310344827586</v>
+        <v>13.793103448275859</v>
       </c>
       <c r="F198">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G198">
-        <v>26.05555555555556</v>
+        <v>26.055555555555561</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J198">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K198">
         <v>194</v>
@@ -8522,7 +8585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8536,7 +8599,7 @@
         <v>16.0625</v>
       </c>
       <c r="E199">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -8563,7 +8626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8574,7 +8637,7 @@
         <v>57</v>
       </c>
       <c r="D200">
-        <v>21.85294117647059</v>
+        <v>21.852941176470591</v>
       </c>
       <c r="E200">
         <v>12.5</v>
@@ -8583,7 +8646,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="G200">
-        <v>21.06060606060606</v>
+        <v>21.060606060606059</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -8592,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -8604,12 +8667,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C201">
         <v>57</v>
@@ -8624,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="G201">
-        <v>17.88888888888889</v>
+        <v>17.888888888888889</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8645,18 +8708,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C202">
         <v>57</v>
       </c>
       <c r="D202">
-        <v>28.94444444444444</v>
+        <v>28.944444444444439</v>
       </c>
       <c r="E202">
         <v>24.8125</v>
@@ -8686,7 +8749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8700,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F203">
         <v>1.899999999999999</v>
@@ -8712,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="I203">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J203">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -8727,12 +8790,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C204">
         <v>57</v>
@@ -8747,7 +8810,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="G204">
-        <v>29.27777777777778</v>
+        <v>29.277777777777779</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -8768,7 +8831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8782,10 +8845,10 @@
         <v>18.46153846153846</v>
       </c>
       <c r="E205">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F205">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G205">
         <v>22.5</v>
@@ -8797,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -8809,12 +8872,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C206">
         <v>55</v>
@@ -8823,7 +8886,7 @@
         <v>25.4375</v>
       </c>
       <c r="E206">
-        <v>14.28571428571428</v>
+        <v>14.285714285714279</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -8850,7 +8913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8870,7 +8933,7 @@
         <v>2.5</v>
       </c>
       <c r="G207">
-        <v>14.575</v>
+        <v>14.574999999999999</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -8879,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -8891,7 +8954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8902,22 +8965,22 @@
         <v>55</v>
       </c>
       <c r="D208">
-        <v>28.43478260869565</v>
+        <v>28.434782608695649</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G208">
-        <v>19.89583333333334</v>
+        <v>19.895833333333339</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -8932,33 +8995,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C209">
         <v>57</v>
       </c>
       <c r="D209">
-        <v>20.77777777777778</v>
+        <v>20.777777777777779</v>
       </c>
       <c r="E209">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F209">
         <v>3.100000000000001</v>
       </c>
       <c r="G209">
-        <v>18.15277777777778</v>
+        <v>18.152777777777779</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -8973,30 +9036,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C210">
         <v>57</v>
       </c>
       <c r="D210">
-        <v>28.83333333333333</v>
+        <v>28.833333333333329</v>
       </c>
       <c r="E210">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F210">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G210">
         <v>12.96296296296296</v>
       </c>
       <c r="H210">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -9014,12 +9077,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C211">
         <v>57</v>
@@ -9028,10 +9091,10 @@
         <v>18.7741935483871</v>
       </c>
       <c r="E211">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F211">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G211">
         <v>14.1875</v>
@@ -9040,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="I211">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J211">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K211">
         <v>0</v>
@@ -9055,12 +9118,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C212">
         <v>57</v>
@@ -9075,16 +9138,16 @@
         <v>1.399999999999999</v>
       </c>
       <c r="G212">
-        <v>36.20454545454545</v>
+        <v>36.204545454545453</v>
       </c>
       <c r="H212">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I212">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J212">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K212">
         <v>210</v>
@@ -9096,12 +9159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C213">
         <v>57</v>
@@ -9110,19 +9173,19 @@
         <v>29.6875</v>
       </c>
       <c r="E213">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F213">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G213">
         <v>27.68</v>
       </c>
       <c r="H213">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I213">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -9137,12 +9200,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C214">
         <v>55</v>
@@ -9154,16 +9217,16 @@
         <v>30.58173076923077</v>
       </c>
       <c r="F214">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G214">
         <v>13.20833333333333</v>
       </c>
       <c r="H214">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="I214">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -9178,7 +9241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9207,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -9219,7 +9282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9239,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="G216">
-        <v>37.71428571428572</v>
+        <v>37.714285714285722</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9260,7 +9323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9280,13 +9343,13 @@
         <v>1</v>
       </c>
       <c r="G217">
-        <v>33.43333333333334</v>
+        <v>33.433333333333337</v>
       </c>
       <c r="H217">
         <v>0</v>
       </c>
       <c r="I217">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -9301,7 +9364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9321,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="G218">
-        <v>34.07894736842105</v>
+        <v>34.078947368421048</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -9342,7 +9405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9353,25 +9416,25 @@
         <v>55</v>
       </c>
       <c r="D219">
-        <v>28.02857142857143</v>
+        <v>28.028571428571428</v>
       </c>
       <c r="E219">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F219">
-        <v>0.3999999999999986</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G219">
-        <v>35.82857142857143</v>
+        <v>35.828571428571429</v>
       </c>
       <c r="H219">
         <v>0</v>
       </c>
       <c r="I219">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J219">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -9383,7 +9446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9394,7 +9457,7 @@
         <v>57</v>
       </c>
       <c r="D220">
-        <v>22.10344827586207</v>
+        <v>22.103448275862071</v>
       </c>
       <c r="E220">
         <v>16.30434782608695</v>
@@ -9403,7 +9466,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="G220">
-        <v>19.82142857142857</v>
+        <v>19.821428571428569</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -9424,12 +9487,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C221">
         <v>57</v>
@@ -9438,19 +9501,19 @@
         <v>15</v>
       </c>
       <c r="E221">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F221">
-        <v>0.3999999999999986</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G221">
-        <v>20.31372549019608</v>
+        <v>20.313725490196081</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -9465,33 +9528,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C222">
         <v>55</v>
       </c>
       <c r="D222">
-        <v>16.88888888888889</v>
+        <v>16.888888888888889</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
-        <v>0.2999999999999972</v>
+        <v>0.29999999999999721</v>
       </c>
       <c r="G222">
-        <v>27.07142857142857</v>
+        <v>27.071428571428569</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
       <c r="I222">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -9506,7 +9569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9517,25 +9580,25 @@
         <v>57</v>
       </c>
       <c r="D223">
-        <v>21.04761904761905</v>
+        <v>21.047619047619051</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G223">
-        <v>21.02439024390244</v>
+        <v>21.024390243902442</v>
       </c>
       <c r="H223">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I223">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J223">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -9547,27 +9610,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C224">
         <v>57</v>
       </c>
       <c r="D224">
-        <v>27.11111111111111</v>
+        <v>27.111111111111111</v>
       </c>
       <c r="E224">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F224">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G224">
-        <v>26.94117647058824</v>
+        <v>26.941176470588239</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -9588,12 +9651,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C225">
         <v>57</v>
@@ -9614,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I225">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9629,7 +9692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9640,7 +9703,7 @@
         <v>57</v>
       </c>
       <c r="D226">
-        <v>21.20833333333333</v>
+        <v>21.208333333333329</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -9649,16 +9712,16 @@
         <v>1.899999999999999</v>
       </c>
       <c r="G226">
-        <v>20.73913043478261</v>
+        <v>20.739130434782609</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>33.33333333333333</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J226">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -9670,21 +9733,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C227">
         <v>55</v>
       </c>
       <c r="D227">
-        <v>25.88888888888889</v>
+        <v>25.888888888888889</v>
       </c>
       <c r="E227">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F227">
         <v>1.5</v>
@@ -9711,12 +9774,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C228">
         <v>57</v>
@@ -9731,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="G228">
-        <v>41.92105263157895</v>
+        <v>41.921052631578952</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -9752,24 +9815,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C229">
         <v>57</v>
       </c>
       <c r="D229">
-        <v>36.29411764705883</v>
+        <v>36.294117647058833</v>
       </c>
       <c r="E229">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F229">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G229">
         <v>29.65625</v>
@@ -9781,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K229">
         <v>226</v>
@@ -9793,18 +9856,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C230">
         <v>57</v>
       </c>
       <c r="D230">
-        <v>30.55555555555556</v>
+        <v>30.555555555555561</v>
       </c>
       <c r="E230">
         <v>30</v>
@@ -9813,7 +9876,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="G230">
-        <v>19.425</v>
+        <v>19.425000000000001</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -9834,7 +9897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9848,13 +9911,13 @@
         <v>17.38461538461538</v>
       </c>
       <c r="E231">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F231">
         <v>1.899999999999999</v>
       </c>
       <c r="G231">
-        <v>28.04761904761905</v>
+        <v>28.047619047619051</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -9863,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -9875,12 +9938,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C232">
         <v>57</v>
@@ -9895,7 +9958,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="G232">
-        <v>22.37878787878788</v>
+        <v>22.378787878787879</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -9916,12 +9979,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C233">
         <v>57</v>
@@ -9957,36 +10020,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C234">
         <v>57</v>
       </c>
       <c r="D234">
-        <v>18.06060606060606</v>
+        <v>18.060606060606059</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G234">
         <v>30.890625</v>
       </c>
       <c r="H234">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I234">
         <v>0</v>
       </c>
       <c r="J234">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -9998,7 +10061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10009,7 +10072,7 @@
         <v>57</v>
       </c>
       <c r="D235">
-        <v>17.59459459459459</v>
+        <v>17.594594594594589</v>
       </c>
       <c r="E235">
         <v>16.5</v>
@@ -10018,7 +10081,7 @@
         <v>2</v>
       </c>
       <c r="G235">
-        <v>6.102564102564102</v>
+        <v>6.1025641025641022</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -10027,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K235">
         <v>0</v>
@@ -10039,27 +10102,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C236">
         <v>57</v>
       </c>
       <c r="D236">
-        <v>35.77777777777778</v>
+        <v>35.777777777777779</v>
       </c>
       <c r="E236">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F236">
-        <v>2.799999999999997</v>
+        <v>2.7999999999999972</v>
       </c>
       <c r="G236">
-        <v>20.42857142857143</v>
+        <v>20.428571428571431</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -10068,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -10080,7 +10143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10091,7 +10154,7 @@
         <v>57</v>
       </c>
       <c r="D237">
-        <v>27.34285714285714</v>
+        <v>27.342857142857142</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -10100,7 +10163,7 @@
         <v>2</v>
       </c>
       <c r="G237">
-        <v>25.28571428571428</v>
+        <v>25.285714285714281</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -10109,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -10121,7 +10184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10138,10 +10201,10 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>0.6000000000000014</v>
+        <v>0.60000000000000142</v>
       </c>
       <c r="G238">
-        <v>37.58974358974359</v>
+        <v>37.589743589743591</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -10162,7 +10225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10179,7 +10242,7 @@
         <v>24.8125</v>
       </c>
       <c r="F239">
-        <v>0.3999999999999986</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G239">
         <v>35.08</v>
@@ -10191,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -10203,7 +10266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10232,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -10244,7 +10307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10258,7 +10321,7 @@
         <v>22.9</v>
       </c>
       <c r="E241">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F241">
         <v>1.600000000000001</v>
@@ -10267,13 +10330,13 @@
         <v>24.13636363636364</v>
       </c>
       <c r="H241">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -10285,12 +10348,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C242">
         <v>53</v>
@@ -10305,10 +10368,10 @@
         <v>1.100000000000001</v>
       </c>
       <c r="G242">
-        <v>30.70833333333333</v>
+        <v>30.708333333333329</v>
       </c>
       <c r="H242">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -10326,7 +10389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10337,7 +10400,7 @@
         <v>57</v>
       </c>
       <c r="D243">
-        <v>17.51282051282051</v>
+        <v>17.512820512820511</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -10367,7 +10430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10378,7 +10441,7 @@
         <v>57</v>
       </c>
       <c r="D244">
-        <v>26.66666666666667</v>
+        <v>26.666666666666671</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -10396,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K244">
         <v>242</v>
@@ -10408,24 +10471,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C245">
         <v>57</v>
       </c>
       <c r="D245">
-        <v>35.21428571428572</v>
+        <v>35.214285714285722</v>
       </c>
       <c r="E245">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F245">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G245">
         <v>33.92307692307692</v>
@@ -10437,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K245">
         <v>242</v>
@@ -10449,12 +10512,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>24.21245421245422</v>
+        <v>24.212454212454219</v>
       </c>
       <c r="C246">
         <v>57</v>
@@ -10490,7 +10553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10504,13 +10567,13 @@
         <v>22.04545454545455</v>
       </c>
       <c r="E247">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F247">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G247">
-        <v>25.21428571428572</v>
+        <v>25.214285714285719</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -10531,12 +10594,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C248">
         <v>55</v>
@@ -10551,10 +10614,10 @@
         <v>1.600000000000001</v>
       </c>
       <c r="G248">
-        <v>23.46666666666667</v>
+        <v>23.466666666666669</v>
       </c>
       <c r="H248">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -10572,7 +10635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10592,7 +10655,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="G249">
-        <v>28.26086956521739</v>
+        <v>28.260869565217391</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -10601,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K249">
         <v>0</v>
@@ -10613,27 +10676,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C250">
         <v>55</v>
       </c>
       <c r="D250">
-        <v>25.11111111111111</v>
+        <v>25.111111111111111</v>
       </c>
       <c r="E250">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F250">
-        <v>0.3999999999999986</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="G250">
-        <v>36.55555555555556</v>
+        <v>36.555555555555557</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -10642,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K250">
         <v>0</v>
@@ -10654,12 +10717,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>14.43059628543499</v>
+        <v>14.430596285434991</v>
       </c>
       <c r="C251">
         <v>55</v>
@@ -10695,7 +10758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10706,16 +10769,16 @@
         <v>57</v>
       </c>
       <c r="D252">
-        <v>33.04166666666666</v>
+        <v>33.041666666666657</v>
       </c>
       <c r="E252">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F252">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G252">
-        <v>31.20833333333334</v>
+        <v>31.208333333333339</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -10724,7 +10787,7 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -10736,21 +10799,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>25.34807534807534</v>
+        <v>25.348075348075341</v>
       </c>
       <c r="C253">
         <v>55</v>
       </c>
       <c r="D253">
-        <v>25.22222222222222</v>
+        <v>25.222222222222221</v>
       </c>
       <c r="E253">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F253">
         <v>1.399999999999999</v>
@@ -10777,7 +10840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10794,19 +10857,19 @@
         <v>30</v>
       </c>
       <c r="F254">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G254">
-        <v>32.275</v>
+        <v>32.274999999999999</v>
       </c>
       <c r="H254">
-        <v>8.333333333333332</v>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I254">
         <v>0</v>
       </c>
       <c r="J254">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -10818,12 +10881,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>18.50818452380953</v>
+        <v>18.508184523809529</v>
       </c>
       <c r="C255">
         <v>57</v>
@@ -10835,10 +10898,10 @@
         <v>9.722222222222225</v>
       </c>
       <c r="F255">
-        <v>0.1000000000000014</v>
+        <v>0.10000000000000139</v>
       </c>
       <c r="G255">
-        <v>7.107142857142857</v>
+        <v>7.1071428571428568</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -10847,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -10859,7 +10922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10870,10 +10933,10 @@
         <v>57</v>
       </c>
       <c r="D256">
-        <v>18.33333333333333</v>
+        <v>18.333333333333329</v>
       </c>
       <c r="E256">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F256">
         <v>0</v>
@@ -10900,18 +10963,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>23.26585695006747</v>
+        <v>23.265856950067469</v>
       </c>
       <c r="C257">
         <v>55</v>
       </c>
       <c r="D257">
-        <v>28.85714285714286</v>
+        <v>28.857142857142861</v>
       </c>
       <c r="E257">
         <v>1.666666666666667</v>
@@ -10941,7 +11004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -10958,10 +11021,10 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>0.8999999999999986</v>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G258">
-        <v>9.933333333333334</v>
+        <v>9.9333333333333336</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -10970,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -10982,7 +11045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -10993,7 +11056,7 @@
         <v>57</v>
       </c>
       <c r="D259">
-        <v>29.66666666666667</v>
+        <v>29.666666666666671</v>
       </c>
       <c r="E259">
         <v>25</v>
@@ -11023,12 +11086,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260">
-        <v>16.56013257575757</v>
+        <v>16.560132575757571</v>
       </c>
       <c r="C260">
         <v>57</v>
@@ -11037,10 +11100,10 @@
         <v>28.18181818181818</v>
       </c>
       <c r="E260">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F260">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G260">
         <v>31.25</v>
@@ -11052,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K260">
         <v>258</v>
@@ -11064,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11075,7 +11138,7 @@
         <v>55</v>
       </c>
       <c r="D261">
-        <v>28.2962962962963</v>
+        <v>28.296296296296301</v>
       </c>
       <c r="E261">
         <v>24.8125</v>
@@ -11084,7 +11147,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="G261">
-        <v>29.9074074074074</v>
+        <v>29.907407407407401</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -11093,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K261">
         <v>258</v>
@@ -11105,12 +11168,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262">
-        <v>19.24838362068965</v>
+        <v>19.248383620689651</v>
       </c>
       <c r="C262">
         <v>57</v>
@@ -11125,7 +11188,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="G262">
-        <v>29.66666666666666</v>
+        <v>29.666666666666661</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -11146,7 +11209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11157,7 +11220,7 @@
         <v>55</v>
       </c>
       <c r="D263">
-        <v>41.83333333333334</v>
+        <v>41.833333333333343</v>
       </c>
       <c r="E263">
         <v>16.30434782608695</v>
@@ -11187,27 +11250,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C264">
         <v>55</v>
       </c>
       <c r="D264">
-        <v>31.68421052631579</v>
+        <v>31.684210526315791</v>
       </c>
       <c r="E264">
         <v>25</v>
       </c>
       <c r="F264">
-        <v>1.200000000000003</v>
+        <v>1.2000000000000031</v>
       </c>
       <c r="G264">
-        <v>36.225</v>
+        <v>36.225000000000001</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -11216,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -11228,12 +11291,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265">
-        <v>21.83150183150184</v>
+        <v>21.831501831501839</v>
       </c>
       <c r="C265">
         <v>57</v>
@@ -11248,7 +11311,7 @@
         <v>0.5</v>
       </c>
       <c r="G265">
-        <v>22.83333333333334</v>
+        <v>22.833333333333339</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -11269,7 +11332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11286,10 +11349,10 @@
         <v>0</v>
       </c>
       <c r="F266">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G266">
-        <v>17.33333333333334</v>
+        <v>17.333333333333339</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -11298,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K266">
         <v>0</v>
@@ -11310,12 +11373,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>21.45833333333333</v>
+        <v>21.458333333333329</v>
       </c>
       <c r="C267">
         <v>55</v>
@@ -11324,10 +11387,10 @@
         <v>14.03703703703704</v>
       </c>
       <c r="E267">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F267">
-        <v>3.200000000000003</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="G267">
         <v>30.60227272727273</v>
@@ -11351,7 +11414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11362,10 +11425,10 @@
         <v>57</v>
       </c>
       <c r="D268">
-        <v>18.90476190476191</v>
+        <v>18.904761904761909</v>
       </c>
       <c r="E268">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -11392,7 +11455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11406,7 +11469,7 @@
         <v>17.61904761904762</v>
       </c>
       <c r="E269">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F269">
         <v>2.600000000000001</v>
@@ -11433,7 +11496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11444,13 +11507,13 @@
         <v>57</v>
       </c>
       <c r="D270">
-        <v>13.13333333333333</v>
+        <v>13.133333333333329</v>
       </c>
       <c r="E270">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F270">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G270">
         <v>6.2</v>
@@ -11462,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K270">
         <v>0</v>
@@ -11474,12 +11537,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271">
-        <v>21.67038690476191</v>
+        <v>21.670386904761909</v>
       </c>
       <c r="C271">
         <v>55</v>
@@ -11494,7 +11557,7 @@
         <v>1.399999999999999</v>
       </c>
       <c r="G271">
-        <v>22.26666666666667</v>
+        <v>22.266666666666669</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -11515,7 +11578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11526,16 +11589,16 @@
         <v>57</v>
       </c>
       <c r="D272">
-        <v>24.8695652173913</v>
+        <v>24.869565217391301</v>
       </c>
       <c r="E272">
-        <v>5.555555555555555</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="F272">
         <v>2</v>
       </c>
       <c r="G272">
-        <v>17.02173913043478</v>
+        <v>17.021739130434781</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -11544,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -11556,27 +11619,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>16.25556261919898</v>
+        <v>16.255562619198979</v>
       </c>
       <c r="C273">
         <v>55</v>
       </c>
       <c r="D273">
-        <v>9.782608695652174</v>
+        <v>9.7826086956521738</v>
       </c>
       <c r="E273">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F273">
-        <v>0.2000000000000028</v>
+        <v>0.20000000000000279</v>
       </c>
       <c r="G273">
-        <v>4.590909090909091</v>
+        <v>4.5909090909090908</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -11597,7 +11660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11611,13 +11674,13 @@
         <v>13.92105263157895</v>
       </c>
       <c r="E274">
-        <v>16.66666666666666</v>
+        <v>16.666666666666661</v>
       </c>
       <c r="F274">
         <v>1.899999999999999</v>
       </c>
       <c r="G274">
-        <v>12.31081081081081</v>
+        <v>12.310810810810811</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -11626,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -11638,7 +11701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11649,7 +11712,7 @@
         <v>55</v>
       </c>
       <c r="D275">
-        <v>25.73684210526316</v>
+        <v>25.736842105263161</v>
       </c>
       <c r="E275">
         <v>30</v>
@@ -11658,7 +11721,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="G275">
-        <v>34.18421052631579</v>
+        <v>34.184210526315788</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -11667,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K275">
         <v>273</v>
@@ -11679,7 +11742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11690,16 +11753,16 @@
         <v>57</v>
       </c>
       <c r="D276">
-        <v>27.31578947368421</v>
+        <v>27.315789473684209</v>
       </c>
       <c r="E276">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F276">
         <v>2.100000000000001</v>
       </c>
       <c r="G276">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -11708,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J276">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K276">
         <v>273</v>
@@ -11720,7 +11783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11731,7 +11794,7 @@
         <v>57</v>
       </c>
       <c r="D277">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E277">
         <v>18.75</v>
@@ -11740,7 +11803,7 @@
         <v>3</v>
       </c>
       <c r="G277">
-        <v>26.10714285714286</v>
+        <v>26.107142857142861</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -11749,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K277">
         <v>273</v>
@@ -11761,7 +11824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11772,10 +11835,10 @@
         <v>57</v>
       </c>
       <c r="D278">
-        <v>19.56521739130435</v>
+        <v>19.565217391304351</v>
       </c>
       <c r="E278">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F278">
         <v>2.600000000000001</v>
@@ -11790,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -11802,7 +11865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11822,7 +11885,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="G279">
-        <v>21.83333333333333</v>
+        <v>21.833333333333329</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -11843,12 +11906,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280">
-        <v>17.31770833333333</v>
+        <v>17.317708333333329</v>
       </c>
       <c r="C280">
         <v>57</v>
@@ -11860,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="F280">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G280">
         <v>13.52</v>
@@ -11884,12 +11947,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>17.34138257575757</v>
+        <v>17.341382575757571</v>
       </c>
       <c r="C281">
         <v>57</v>
@@ -11925,27 +11988,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C282">
         <v>55</v>
       </c>
       <c r="D282">
-        <v>37.71428571428572</v>
+        <v>37.714285714285722</v>
       </c>
       <c r="E282">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F282">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="G282">
-        <v>38.91666666666666</v>
+        <v>38.916666666666657</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -11966,12 +12029,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>20.64102564102564</v>
+        <v>20.641025641025639</v>
       </c>
       <c r="C283">
         <v>57</v>
@@ -11980,13 +12043,13 @@
         <v>27.88</v>
       </c>
       <c r="E283">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F283">
-        <v>1.700000000000003</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="G283">
-        <v>18.21666666666667</v>
+        <v>18.216666666666669</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -11995,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -12007,12 +12070,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>19.52380952380953</v>
+        <v>19.523809523809529</v>
       </c>
       <c r="C284">
         <v>55</v>
@@ -12024,7 +12087,7 @@
         <v>16.30434782608695</v>
       </c>
       <c r="F284">
-        <v>2.299999999999997</v>
+        <v>2.2999999999999972</v>
       </c>
       <c r="G284">
         <v>10.36363636363636</v>
@@ -12048,7 +12111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12062,10 +12125,10 @@
         <v>42.25</v>
       </c>
       <c r="E285">
-        <v>4.545454545454546</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="F285">
-        <v>2.200000000000003</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="G285">
         <v>14.3</v>
@@ -12077,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K285">
         <v>0</v>
@@ -12089,7 +12152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12103,13 +12166,13 @@
         <v>30</v>
       </c>
       <c r="E286">
-        <v>8.974358974358974</v>
+        <v>8.9743589743589745</v>
       </c>
       <c r="F286">
-        <v>1.700000000000003</v>
+        <v>1.7000000000000031</v>
       </c>
       <c r="G286">
-        <v>19.47916666666666</v>
+        <v>19.479166666666661</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -12118,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K286">
         <v>284</v>
@@ -12130,7 +12193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12141,16 +12204,16 @@
         <v>55</v>
       </c>
       <c r="D287">
-        <v>24.13333333333333</v>
+        <v>24.133333333333329</v>
       </c>
       <c r="E287">
-        <v>6.97674418604651</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="F287">
-        <v>0.7999999999999972</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="G287">
-        <v>34.05172413793103</v>
+        <v>34.051724137931032</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -12159,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K287">
         <v>284</v>
@@ -12171,7 +12234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -12182,7 +12245,7 @@
         <v>57</v>
       </c>
       <c r="D288">
-        <v>23.54285714285714</v>
+        <v>23.542857142857141</v>
       </c>
       <c r="E288">
         <v>1.666666666666667</v>
@@ -12191,7 +12254,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="G288">
-        <v>29.18918918918919</v>
+        <v>29.189189189189189</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -12200,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="J288">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K288">
         <v>284</v>
@@ -12212,7 +12275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -12223,16 +12286,16 @@
         <v>57</v>
       </c>
       <c r="D289">
-        <v>22.11111111111111</v>
+        <v>22.111111111111111</v>
       </c>
       <c r="E289">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="F289">
         <v>1.5</v>
       </c>
       <c r="G289">
-        <v>27.59259259259259</v>
+        <v>27.592592592592592</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -12253,7 +12316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -12273,7 +12336,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="G290">
-        <v>7.982142857142857</v>
+        <v>7.9821428571428568</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -12294,24 +12357,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>23.07534807534807</v>
+        <v>23.075348075348071</v>
       </c>
       <c r="C291">
         <v>55</v>
       </c>
       <c r="D291">
-        <v>28.31578947368421</v>
+        <v>28.315789473684209</v>
       </c>
       <c r="E291">
-        <v>49.83333333333333</v>
+        <v>49.833333333333329</v>
       </c>
       <c r="F291">
-        <v>1.299999999999997</v>
+        <v>1.2999999999999969</v>
       </c>
       <c r="G291">
         <v>11.02777777777778</v>
@@ -12323,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>0.5000000000000142</v>
+        <v>0.50000000000001421</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -12335,18 +12398,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292">
-        <v>19.28943452380953</v>
+        <v>19.289434523809529</v>
       </c>
       <c r="C292">
         <v>57</v>
       </c>
       <c r="D292">
-        <v>25.42105263157895</v>
+        <v>25.421052631578949</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -12355,7 +12418,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="G292">
-        <v>8.208333333333332</v>
+        <v>8.2083333333333321</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -12376,12 +12439,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293">
-        <v>19.88344988344988</v>
+        <v>19.883449883449881</v>
       </c>
       <c r="C293">
         <v>57</v>
@@ -12396,7 +12459,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="G293">
-        <v>33.11538461538461</v>
+        <v>33.115384615384613</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -12417,12 +12480,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294">
-        <v>21.90476190476191</v>
+        <v>21.904761904761909</v>
       </c>
       <c r="C294">
         <v>55</v>
@@ -12458,12 +12521,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295">
-        <v>17.31770833333333</v>
+        <v>17.317708333333329</v>
       </c>
       <c r="C295">
         <v>57</v>
@@ -12499,18 +12562,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296">
-        <v>17.31770833333333</v>
+        <v>17.317708333333329</v>
       </c>
       <c r="C296">
         <v>57</v>
       </c>
       <c r="D296">
-        <v>23.58333333333333</v>
+        <v>23.583333333333329</v>
       </c>
       <c r="E296">
         <v>16.30434782608695</v>
@@ -12540,7 +12603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -12557,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>0.2999999999999972</v>
+        <v>0.29999999999999721</v>
       </c>
       <c r="G297">
         <v>35</v>
@@ -12582,6 +12645,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>